--- a/design/02.機能一覧.xlsx
+++ b/design/02.機能一覧.xlsx
@@ -335,23 +335,14 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>運動したりした時Ｔｗｉｔｔｅｒにツイートして悦に浸れる</t>
+    <t>運動したことをツイートできる</t>
     <rPh sb="0" eb="2">
       <t>ウンドウ</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>エツ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヒタ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>体重が減ったらＴｗｉｔｔｅｒでどやれる</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>体重が減ったらツイートできる</t>
     <rPh sb="0" eb="2">
       <t>タイジュウ</t>
     </rPh>
@@ -361,10 +352,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザーはＩＤとパスワードでサービスにログインする　（ＴｗｉｔｔｅｒのOＡuth認証もサポートする）</t>
-    <rPh sb="40" eb="42">
-      <t>ニンショウ</t>
-    </rPh>
+    <t>ユーザーはＩＤとパスワードでサービスにログインする</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -773,7 +761,7 @@
   <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/design/02.機能一覧.xlsx
+++ b/design/02.機能一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -242,13 +242,6 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（仮）</t>
-    <rPh sb="1" eb="2">
-      <t>カリ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -758,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D17"/>
+  <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -771,12 +764,12 @@
     <col min="3" max="3" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,15 +777,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -800,7 +793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -808,7 +801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -816,7 +809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -824,67 +817,64 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -892,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/design/02.機能一覧.xlsx
+++ b/design/02.機能一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -113,32 +113,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>体重変化把握（ユーザーが）</t>
-    <rPh sb="0" eb="2">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハアク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>運動量把握（ユーザーが）</t>
-    <rPh sb="0" eb="2">
-      <t>ウンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハアク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>運動情報ツイート</t>
     <rPh sb="0" eb="2">
       <t>ウンドウ</t>
@@ -176,25 +150,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>身長データ等の必要データを初期入力する</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>体重を登録する（一定期間毎の入力を要求する）</t>
     <rPh sb="0" eb="2">
       <t>タイジュウ</t>
@@ -246,31 +201,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザーの持ち運びのデバイスで歩いたことを把握　歩数を算出し記録する</t>
-    <rPh sb="5" eb="6">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハコ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アル</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハアク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ホスウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サンシュツ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>持ち運びデバイスからサーバーへ歩数データを送信する</t>
     <rPh sb="0" eb="1">
       <t>モ</t>
@@ -287,47 +217,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザーがアクセスした画面でグラフ表示された体重変化を見れる</t>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>上記同様にグラフ表示で自分がどれくらい運動したか見る</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ウンドウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>運動したことをツイートできる</t>
     <rPh sb="0" eb="2">
       <t>ウンドウ</t>
@@ -346,6 +235,303 @@
   </si>
   <si>
     <t>ユーザーはＩＤとパスワードでサービスにログインする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーの持ち運びのデバイスで歩いたことを記録　歩数を算出し記録する</t>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＞消費カロリー等計算</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>USBシリアル通信ポートCOM2で運動記録をPC側常駐ソフトへ送信する</t>
+    <rPh sb="7" eb="9">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>常駐ソフトが受け取った運動記録から消費カロリー等を計算する</t>
+    <rPh sb="0" eb="5">
+      <t>ジョウチュ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="17" eb="24">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＞デバイスからPCへ歩数データ送信</t>
+    <rPh sb="10" eb="12">
+      <t>ホスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウンソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＞PCからサーバーへ運動記録送信</t>
+    <rPh sb="10" eb="12">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>常駐ソフトが運動記録をサーバへPOST送信する</t>
+    <rPh sb="0" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>体重変化表示</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運動量表示</t>
+    <rPh sb="0" eb="2">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メイン画面に体重の変化をグラフ表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メイン画面に運動量を表示（表示方法検討中）する</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ウンドウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ヒョウジホ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>身長,年齢,体重,必要データを初期入力する</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>加速度センサーでユーザーが歩いている状態を認識する</t>
+    <rPh sb="0" eb="3">
+      <t>カソクド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＞運動状態認識</t>
+    <rPh sb="1" eb="3">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＞歩数計測</t>
+    <rPh sb="1" eb="3">
+      <t>ホスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイソク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>何歩歩いたか記録する</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ポ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＞運動時間計測</t>
+    <rPh sb="1" eb="3">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイソク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>何時から何時まで運動していたのか記録する</t>
+    <rPh sb="0" eb="2">
+      <t>イツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キロク</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -751,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C17"/>
+  <dimension ref="B1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -782,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -790,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -798,31 +984,23 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -831,58 +1009,142 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/design/02.機能一覧.xlsx
+++ b/design/02.機能一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -94,25 +94,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>運動量把握（デバイスがユーザーの運動を把握）</t>
-    <rPh sb="0" eb="2">
-      <t>ウンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハアク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ウンドウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハアク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>運動情報ツイート</t>
     <rPh sb="0" eb="2">
       <t>ウンドウ</t>
@@ -429,28 +410,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>身長,年齢,体重,必要データを初期入力する</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>加速度センサーでユーザーが歩いている状態を認識する</t>
     <rPh sb="0" eb="3">
       <t>カソクド</t>
@@ -531,6 +490,73 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運動量記録</t>
+    <rPh sb="0" eb="2">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>性別,身長,年齢,体重を初期入力する</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録情報変更</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初期情報として登録した情報を更新する（プロフィール更新）</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -940,7 +966,7 @@
   <dimension ref="B1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -968,7 +994,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -976,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -984,12 +1010,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="2"/>
@@ -1000,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -1012,7 +1042,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -1021,10 +1051,10 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -1033,34 +1063,34 @@
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -1076,31 +1106,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -1113,18 +1143,18 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -1133,18 +1163,18 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/design/02.機能一覧.xlsx
+++ b/design/02.機能一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -36,19 +36,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>初期情報登録</t>
-    <rPh sb="0" eb="2">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -124,13 +111,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ＩＤ（メールアドレス）　ＰＷでサービスにアカウント登録する</t>
-    <rPh sb="25" eb="27">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>体重を登録する（一定期間毎の入力を要求する）</t>
     <rPh sb="0" eb="2">
       <t>タイジュウ</t>
@@ -507,28 +487,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>性別,身長,年齢,体重を初期入力する</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>登録情報変更</t>
     <rPh sb="0" eb="4">
       <t>トウロクジョウホウ</t>
@@ -539,7 +497,14 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>初期情報として登録した情報を更新する（プロフィール更新）</t>
+    <t>ＩＤ（メールアドレス）　ＰＷでサービスにアカウント登録する 性別,身長,年齢,体重を初期入力する</t>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初期情報として登録した情報を更新する（プロフィール画面で更新）</t>
     <rPh sb="0" eb="2">
       <t>ショキ</t>
     </rPh>
@@ -556,6 +521,9 @@
       <t>コウシン</t>
     </rPh>
     <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
       <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -966,7 +934,7 @@
   <dimension ref="B1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -991,34 +959,30 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -1027,10 +991,10 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -1039,10 +1003,10 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -1051,10 +1015,10 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -1063,34 +1027,34 @@
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -1103,34 +1067,34 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -1143,18 +1107,18 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -1163,18 +1127,18 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
